--- a/GuruSampleAutomation/TestData/DataSheet.xlsx
+++ b/GuruSampleAutomation/TestData/DataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THI1910536\Documents\TestComplete 14 Projects\Guru99\GuruSampleAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822C6052-0741-4F7A-A948-B01BDBE7BC9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BE9A8C-D972-47E1-AB2D-9239F75BB434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E910A1E1-CE6E-4C7D-85DA-CF3D10511DD9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>sdfcmmm@gmai.com</t>
+  </si>
+  <si>
+    <t>rajan</t>
+  </si>
+  <si>
+    <t>12Kanmvle</t>
+  </si>
+  <si>
+    <t>palani</t>
+  </si>
+  <si>
+    <t>chennai</t>
+  </si>
+  <si>
+    <t>mlkdj@gmd.com</t>
   </si>
 </sst>
 </file>
@@ -498,10 +513,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359319CF-DDF9-4413-93AE-96232F73C429}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,9 +583,39 @@
         <v>123456</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>12021986</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>78451269</v>
+      </c>
+      <c r="G3">
+        <v>784512</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>124536</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{1439FD2C-3F20-4015-B526-6CC4EDD25CE7}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{5C9854AC-4E9C-4B32-8C81-23ABFF70E39D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
